--- a/outcome/appendix/data/PHSMs/AIDS.xlsx
+++ b/outcome/appendix/data/PHSMs/AIDS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">艾滋病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,31 +415,43 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3952.03462135221</v>
+        <v>3908.49029684015</v>
       </c>
       <c r="C2" t="n">
-        <v>3288.67737624136</v>
+        <v>3180.62115392815</v>
       </c>
       <c r="D2" t="n">
-        <v>2982.87525609729</v>
+        <v>2784.8755602531</v>
       </c>
       <c r="E2" t="n">
-        <v>4656.89008984475</v>
+        <v>4653.36528639619</v>
       </c>
       <c r="F2" t="n">
-        <v>4993.41551085639</v>
+        <v>5112.26668616653</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>2759</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1149.49029684015</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,25 +459,31 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3727.01621100074</v>
+        <v>3748.95509235423</v>
       </c>
       <c r="C3" t="n">
-        <v>2945.08007344217</v>
+        <v>2982.53810613381</v>
       </c>
       <c r="D3" t="n">
-        <v>2576.48553532537</v>
+        <v>2574.24951506591</v>
       </c>
       <c r="E3" t="n">
-        <v>4620.06515980758</v>
+        <v>4481.44403761922</v>
       </c>
       <c r="F3" t="n">
-        <v>5037.79269452165</v>
+        <v>4793.12490120726</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>2133</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1615.95509235423</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -461,25 +491,31 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6191.60892561593</v>
+        <v>6211.68481676523</v>
       </c>
       <c r="C4" t="n">
-        <v>5328.87950727255</v>
+        <v>5382.69473962782</v>
       </c>
       <c r="D4" t="n">
-        <v>4884.0416621499</v>
+        <v>4967.23315260849</v>
       </c>
       <c r="E4" t="n">
-        <v>6982.27526502652</v>
+        <v>7136.7981088212</v>
       </c>
       <c r="F4" t="n">
-        <v>7574.87239721983</v>
+        <v>7507.92904369378</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>4808</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1403.68481676523</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -487,25 +523,31 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>6069.40561355099</v>
+        <v>6057.93093233816</v>
       </c>
       <c r="C5" t="n">
-        <v>5131.01879599067</v>
+        <v>5142.9622752251</v>
       </c>
       <c r="D5" t="n">
-        <v>4533.59352264613</v>
+        <v>4615.15325284777</v>
       </c>
       <c r="E5" t="n">
-        <v>6938.29506352864</v>
+        <v>6948.99574505024</v>
       </c>
       <c r="F5" t="n">
-        <v>7714.46278567218</v>
+        <v>7496.57080383438</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>5960</v>
+      </c>
+      <c r="I5" t="n">
+        <v>97.9309323381603</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -513,25 +555,31 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6156.02958763538</v>
+        <v>6188.18095494244</v>
       </c>
       <c r="C6" t="n">
-        <v>5190.28011910881</v>
+        <v>5107.86912720618</v>
       </c>
       <c r="D6" t="n">
-        <v>4507.38542199956</v>
+        <v>4694.72016546919</v>
       </c>
       <c r="E6" t="n">
-        <v>7274.7843954885</v>
+        <v>7170.54194962359</v>
       </c>
       <c r="F6" t="n">
-        <v>7935.24380460981</v>
+        <v>7892.65357570353</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>5484</v>
+      </c>
+      <c r="I6" t="n">
+        <v>704.180954942439</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -539,25 +587,31 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6342.89122544139</v>
+        <v>6381.80094019799</v>
       </c>
       <c r="C7" t="n">
-        <v>5264.95314046718</v>
+        <v>5246.18546481702</v>
       </c>
       <c r="D7" t="n">
-        <v>4550.74295843323</v>
+        <v>4777.81990269077</v>
       </c>
       <c r="E7" t="n">
-        <v>7509.99091344293</v>
+        <v>7488.94424964054</v>
       </c>
       <c r="F7" t="n">
-        <v>8035.78129864541</v>
+        <v>7961.24426749278</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>6915</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-533.199059802007</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -565,25 +619,31 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6327.61392867188</v>
+        <v>6326.96092912285</v>
       </c>
       <c r="C8" t="n">
-        <v>5056.63586167423</v>
+        <v>5135.33920925616</v>
       </c>
       <c r="D8" t="n">
-        <v>4488.66256540775</v>
+        <v>4478.48175950213</v>
       </c>
       <c r="E8" t="n">
-        <v>7496.63561705504</v>
+        <v>7423.72354879231</v>
       </c>
       <c r="F8" t="n">
-        <v>7958.62650928687</v>
+        <v>8111.44562986166</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>5166</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1160.96092912285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -591,25 +651,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5968.06644007536</v>
+        <v>6026.36151959932</v>
       </c>
       <c r="C9" t="n">
-        <v>4687.30713991771</v>
+        <v>4812.55299656664</v>
       </c>
       <c r="D9" t="n">
-        <v>4116.63888446022</v>
+        <v>4118.17626577964</v>
       </c>
       <c r="E9" t="n">
-        <v>7339.70701891326</v>
+        <v>7204.02029237807</v>
       </c>
       <c r="F9" t="n">
-        <v>7795.09771887625</v>
+        <v>7751.37497835083</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>6124</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-97.6384804006848</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -617,25 +683,31 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6136.57506392011</v>
+        <v>6055.76384728238</v>
       </c>
       <c r="C10" t="n">
-        <v>4768.49192986845</v>
+        <v>4757.25289470339</v>
       </c>
       <c r="D10" t="n">
-        <v>4008.88642736774</v>
+        <v>4253.10805089534</v>
       </c>
       <c r="E10" t="n">
-        <v>7570.0717616918</v>
+        <v>7400.01552089985</v>
       </c>
       <c r="F10" t="n">
-        <v>8331.41752719014</v>
+        <v>7967.3903847867</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>6927</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-871.236152717615</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -643,25 +715,31 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>5860.40011172123</v>
+        <v>5910.5113630984</v>
       </c>
       <c r="C11" t="n">
-        <v>4531.20354446534</v>
+        <v>4522.75865592007</v>
       </c>
       <c r="D11" t="n">
-        <v>3850.00833469367</v>
+        <v>3808.20578300402</v>
       </c>
       <c r="E11" t="n">
-        <v>7328.33624297116</v>
+        <v>7240.50203266174</v>
       </c>
       <c r="F11" t="n">
-        <v>8153.57696666181</v>
+        <v>7771.71281161746</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>4546</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1364.5113630984</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -669,25 +747,31 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7393.59849605177</v>
+        <v>7401.17727480492</v>
       </c>
       <c r="C12" t="n">
-        <v>6013.47863410576</v>
+        <v>6177.05409818184</v>
       </c>
       <c r="D12" t="n">
-        <v>5209.33006973896</v>
+        <v>5251.83070884336</v>
       </c>
       <c r="E12" t="n">
-        <v>8841.27271401665</v>
+        <v>8701.60429146593</v>
       </c>
       <c r="F12" t="n">
-        <v>9812.96916735186</v>
+        <v>9467.17135222066</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>5824</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1577.17727480492</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -695,25 +779,31 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7249.47351786964</v>
+        <v>7203.87226524184</v>
       </c>
       <c r="C13" t="n">
-        <v>5869.74674453766</v>
+        <v>5850.36696165974</v>
       </c>
       <c r="D13" t="n">
-        <v>5034.12097688576</v>
+        <v>5112.99489197551</v>
       </c>
       <c r="E13" t="n">
-        <v>8722.32639609896</v>
+        <v>8446.36975161204</v>
       </c>
       <c r="F13" t="n">
-        <v>9492.46583432987</v>
+        <v>9265.80633420525</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>6508</v>
+      </c>
+      <c r="I13" t="n">
+        <v>695.872265241845</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -721,25 +811,31 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4295.05759614322</v>
+        <v>4259.68695075297</v>
       </c>
       <c r="C14" t="n">
-        <v>2745.21057773722</v>
+        <v>2542.47669425688</v>
       </c>
       <c r="D14" t="n">
-        <v>1826.36398504989</v>
+        <v>1505.37991973382</v>
       </c>
       <c r="E14" t="n">
-        <v>5816.82361686279</v>
+        <v>5924.22458117829</v>
       </c>
       <c r="F14" t="n">
-        <v>6754.28714792495</v>
+        <v>6459.72198670048</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>3260</v>
+      </c>
+      <c r="I14" t="n">
+        <v>999.686950752969</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -747,25 +843,31 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4036.57244568805</v>
+        <v>4177.17747418415</v>
       </c>
       <c r="C15" t="n">
-        <v>2417.79614744484</v>
+        <v>2553.39252330648</v>
       </c>
       <c r="D15" t="n">
-        <v>1565.86230290362</v>
+        <v>1793.65695614621</v>
       </c>
       <c r="E15" t="n">
-        <v>5550.14791011236</v>
+        <v>5759.24279266043</v>
       </c>
       <c r="F15" t="n">
-        <v>6709.13767903957</v>
+        <v>6316.98320623295</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>3051</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1126.17747418415</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -773,25 +875,31 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6544.58153053161</v>
+        <v>6604.64000454454</v>
       </c>
       <c r="C16" t="n">
-        <v>4923.98129934952</v>
+        <v>5001.49880503333</v>
       </c>
       <c r="D16" t="n">
-        <v>3978.26485183539</v>
+        <v>4038.16147375585</v>
       </c>
       <c r="E16" t="n">
-        <v>8231.10667799111</v>
+        <v>8121.05777524332</v>
       </c>
       <c r="F16" t="n">
-        <v>9205.39068694909</v>
+        <v>9116.1469877558</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>5951</v>
+      </c>
+      <c r="I16" t="n">
+        <v>653.640004544543</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -799,25 +907,31 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6393.25377353053</v>
+        <v>6455.02282810342</v>
       </c>
       <c r="C17" t="n">
-        <v>4670.2241528129</v>
+        <v>4641.25407284524</v>
       </c>
       <c r="D17" t="n">
-        <v>3715.51690042295</v>
+        <v>3923.91659788652</v>
       </c>
       <c r="E17" t="n">
-        <v>8257.6825375016</v>
+        <v>8224.39102228151</v>
       </c>
       <c r="F17" t="n">
-        <v>9284.30917756032</v>
+        <v>9063.57594306493</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>5283</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1172.02282810342</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -825,25 +939,31 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6518.35158164996</v>
+        <v>6588.3228093234</v>
       </c>
       <c r="C18" t="n">
-        <v>4761.83397955149</v>
+        <v>4886.52311945094</v>
       </c>
       <c r="D18" t="n">
-        <v>3727.24729753631</v>
+        <v>3922.63577619097</v>
       </c>
       <c r="E18" t="n">
-        <v>8435.09006572901</v>
+        <v>8364.18869624455</v>
       </c>
       <c r="F18" t="n">
-        <v>9488.9594884538</v>
+        <v>9337.61564245737</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>5047</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1541.3228093234</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -851,25 +971,31 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6629.93549146315</v>
+        <v>6734.14457949731</v>
       </c>
       <c r="C19" t="n">
-        <v>4777.37462582592</v>
+        <v>5059.0458922535</v>
       </c>
       <c r="D19" t="n">
-        <v>3631.50645421813</v>
+        <v>4262.31056226601</v>
       </c>
       <c r="E19" t="n">
-        <v>8456.39712849967</v>
+        <v>8497.97228020168</v>
       </c>
       <c r="F19" t="n">
-        <v>9652.84878826367</v>
+        <v>9292.52543831421</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>5978</v>
+      </c>
+      <c r="I19" t="n">
+        <v>756.144579497313</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -877,25 +1003,31 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6651.82212683054</v>
+        <v>6686.74384517621</v>
       </c>
       <c r="C20" t="n">
-        <v>4770.87620675507</v>
+        <v>4957.07376017093</v>
       </c>
       <c r="D20" t="n">
-        <v>3438.15008285114</v>
+        <v>4066.42330501475</v>
       </c>
       <c r="E20" t="n">
-        <v>8602.70725835517</v>
+        <v>8554.23772588795</v>
       </c>
       <c r="F20" t="n">
-        <v>10069.1734982773</v>
+        <v>9349.33548259126</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>3373</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3313.74384517621</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -903,25 +1035,31 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6244.33431240763</v>
+        <v>6346.86147443951</v>
       </c>
       <c r="C21" t="n">
-        <v>4460.06911515351</v>
+        <v>4557.13997945247</v>
       </c>
       <c r="D21" t="n">
-        <v>3136.21406255179</v>
+        <v>3387.57843886704</v>
       </c>
       <c r="E21" t="n">
-        <v>8290.74106434426</v>
+        <v>8154.17860908709</v>
       </c>
       <c r="F21" t="n">
-        <v>9471.27541653118</v>
+        <v>9023.28933325057</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>4710</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1636.86147443951</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -929,25 +1067,31 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6346.35028109161</v>
+        <v>6381.49767594823</v>
       </c>
       <c r="C22" t="n">
-        <v>4285.01586919903</v>
+        <v>4540.69617998538</v>
       </c>
       <c r="D22" t="n">
-        <v>3268.38395531461</v>
+        <v>3535.69774365303</v>
       </c>
       <c r="E22" t="n">
-        <v>8454.31934010679</v>
+        <v>8487.99585885763</v>
       </c>
       <c r="F22" t="n">
-        <v>10058.6410541421</v>
+        <v>9259.77168905188</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>5039</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1342.49767594823</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -955,25 +1099,31 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6162.77567874495</v>
+        <v>6257.48076564428</v>
       </c>
       <c r="C23" t="n">
-        <v>4110.84271544732</v>
+        <v>4365.74563678611</v>
       </c>
       <c r="D23" t="n">
-        <v>2809.66351393378</v>
+        <v>3179.7491252246</v>
       </c>
       <c r="E23" t="n">
-        <v>8441.93365565313</v>
+        <v>8216.66703122492</v>
       </c>
       <c r="F23" t="n">
-        <v>9837.65747488885</v>
+        <v>9253.38255740532</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>5357</v>
+      </c>
+      <c r="I23" t="n">
+        <v>900.480765644281</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -981,25 +1131,31 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7670.27353392889</v>
+        <v>7776.34148048633</v>
       </c>
       <c r="C24" t="n">
-        <v>5811.31036425132</v>
+        <v>5962.29997048926</v>
       </c>
       <c r="D24" t="n">
-        <v>4363.77844106137</v>
+        <v>4768.83070986696</v>
       </c>
       <c r="E24" t="n">
-        <v>9663.88324844848</v>
+        <v>9839.81568483395</v>
       </c>
       <c r="F24" t="n">
-        <v>10772.0674317824</v>
+        <v>10698.4650306996</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>6493</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1283.34148048633</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1007,25 +1163,31 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7530.34975571849</v>
+        <v>7564.47538579621</v>
       </c>
       <c r="C25" t="n">
-        <v>5540.48507586113</v>
+        <v>5428.71054623914</v>
       </c>
       <c r="D25" t="n">
-        <v>3971.97766749452</v>
+        <v>4533.86988306562</v>
       </c>
       <c r="E25" t="n">
-        <v>9980.35873561825</v>
+        <v>9586.41618337782</v>
       </c>
       <c r="F25" t="n">
-        <v>11046.1101503684</v>
+        <v>10367.1328156469</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>7490</v>
+      </c>
+      <c r="I25" t="n">
+        <v>74.4753857962132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1033,25 +1195,31 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4555.39318844158</v>
+        <v>4616.46167057107</v>
       </c>
       <c r="C26" t="n">
-        <v>2455.12971969481</v>
+        <v>2366.37533184318</v>
       </c>
       <c r="D26" t="n">
-        <v>1451.98920804879</v>
+        <v>1450.47290391376</v>
       </c>
       <c r="E26" t="n">
-        <v>6631.27735625593</v>
+        <v>7006.85719667261</v>
       </c>
       <c r="F26" t="n">
-        <v>8331.61189044565</v>
+        <v>7792.30883548912</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>3109</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1507.46167057107</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1059,25 +1227,31 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4376.05019924511</v>
+        <v>4476.05865823456</v>
       </c>
       <c r="C27" t="n">
-        <v>2308.79311213229</v>
+        <v>2430.84227584384</v>
       </c>
       <c r="D27" t="n">
-        <v>796.04946909877</v>
+        <v>1295.84875448133</v>
       </c>
       <c r="E27" t="n">
-        <v>6599.96949115808</v>
+        <v>6742.57283521799</v>
       </c>
       <c r="F27" t="n">
-        <v>8200.98086791452</v>
+        <v>7591.39865539913</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>3364</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1112.05865823456</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1085,25 +1259,31 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>6918.13490882048</v>
+        <v>6884.08267742594</v>
       </c>
       <c r="C28" t="n">
-        <v>4771.69185542249</v>
+        <v>4740.04234568763</v>
       </c>
       <c r="D28" t="n">
-        <v>3420.51446312573</v>
+        <v>3874.21299209403</v>
       </c>
       <c r="E28" t="n">
-        <v>9308.62486350928</v>
+        <v>9118.34461707171</v>
       </c>
       <c r="F28" t="n">
-        <v>10356.2590681793</v>
+        <v>10123.719209703</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>5020</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1864.08267742594</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1111,25 +1291,31 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6714.06187180927</v>
+        <v>6724.39338818588</v>
       </c>
       <c r="C29" t="n">
-        <v>4206.32666757649</v>
+        <v>4143.7276606573</v>
       </c>
       <c r="D29" t="n">
-        <v>2609.78449118475</v>
+        <v>3156.2525443576</v>
       </c>
       <c r="E29" t="n">
-        <v>9195.19438046468</v>
+        <v>9138.40120811764</v>
       </c>
       <c r="F29" t="n">
-        <v>10751.4166484595</v>
+        <v>10173.7321727654</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>3837</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2887.39338818588</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1137,25 +1323,31 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6909.99598399935</v>
+        <v>6899.63085960835</v>
       </c>
       <c r="C30" t="n">
-        <v>4778.4708933737</v>
+        <v>4549.76924022913</v>
       </c>
       <c r="D30" t="n">
-        <v>3151.73980159704</v>
+        <v>3271.66884494637</v>
       </c>
       <c r="E30" t="n">
-        <v>9400.89355954247</v>
+        <v>9320.14420948987</v>
       </c>
       <c r="F30" t="n">
-        <v>10573.8274759623</v>
+        <v>10594.0508146639</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>4490</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2409.63085960835</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1163,25 +1355,31 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6966.12732255632</v>
+        <v>7037.76554886849</v>
       </c>
       <c r="C31" t="n">
-        <v>4466.95915217605</v>
+        <v>4784.33118416565</v>
       </c>
       <c r="D31" t="n">
-        <v>2653.50153474988</v>
+        <v>3565.81759557666</v>
       </c>
       <c r="E31" t="n">
-        <v>9551.49739248742</v>
+        <v>9424.96522355474</v>
       </c>
       <c r="F31" t="n">
-        <v>10884.3112517562</v>
+        <v>10745.1274729685</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>5626</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1411.76554886849</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1189,25 +1387,31 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7038.39253179561</v>
+        <v>7072.07778960431</v>
       </c>
       <c r="C32" t="n">
-        <v>4692.79243239329</v>
+        <v>4639.2758153566</v>
       </c>
       <c r="D32" t="n">
-        <v>2881.48224670349</v>
+        <v>3659.27786869502</v>
       </c>
       <c r="E32" t="n">
-        <v>9744.76018534942</v>
+        <v>9586.04274081194</v>
       </c>
       <c r="F32" t="n">
-        <v>11512.6520768208</v>
+        <v>10293.4636753212</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>4667</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2405.07778960431</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1215,25 +1419,31 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6592.56664169163</v>
+        <v>6688.63889993254</v>
       </c>
       <c r="C33" t="n">
-        <v>4229.6467011419</v>
+        <v>4102.18779371081</v>
       </c>
       <c r="D33" t="n">
-        <v>2300.24549265271</v>
+        <v>2914.36124839259</v>
       </c>
       <c r="E33" t="n">
-        <v>9068.88303666553</v>
+        <v>9077.31718094947</v>
       </c>
       <c r="F33" t="n">
-        <v>10572.1204901712</v>
+        <v>10114.2308161945</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>4679</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2009.63889993254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1241,25 +1451,31 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6769.62203710359</v>
+        <v>6758.56731160117</v>
       </c>
       <c r="C34" t="n">
-        <v>4299.1986395258</v>
+        <v>4216.64049693784</v>
       </c>
       <c r="D34" t="n">
-        <v>2435.99085719698</v>
+        <v>2855.58349984938</v>
       </c>
       <c r="E34" t="n">
-        <v>9353.00303786644</v>
+        <v>9295.59803615221</v>
       </c>
       <c r="F34" t="n">
-        <v>11269.2956367611</v>
+        <v>10402.7955000992</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>4389</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2369.56731160117</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1267,25 +1483,31 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6551.54270381078</v>
+        <v>6614.8578287341</v>
       </c>
       <c r="C35" t="n">
-        <v>4266.0044609662</v>
+        <v>4138.80153228653</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.13067897579</v>
+        <v>3076.39119364757</v>
       </c>
       <c r="E35" t="n">
-        <v>9346.38453273755</v>
+        <v>9232.15302756788</v>
       </c>
       <c r="F35" t="n">
-        <v>10773.7421019249</v>
+        <v>10198.9885650408</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>3965</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2649.8578287341</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1293,25 +1515,31 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8076.56324982795</v>
+        <v>8112.3632987009</v>
       </c>
       <c r="C36" t="n">
-        <v>5691.22528144224</v>
+        <v>5606.98754420514</v>
       </c>
       <c r="D36" t="n">
-        <v>3490.77305031909</v>
+        <v>4562.52437220736</v>
       </c>
       <c r="E36" t="n">
-        <v>10767.4833099147</v>
+        <v>10777.8612075916</v>
       </c>
       <c r="F36" t="n">
-        <v>12298.1467124314</v>
+        <v>12166.8060955194</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>4299</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3813.3632987009</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/AIDS.xlsx
+++ b/outcome/appendix/data/PHSMs/AIDS.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3922.9444906058</v>
+        <v>3872.21997781544</v>
       </c>
       <c r="C2" t="n">
-        <v>3163.67381715376</v>
+        <v>3210.61142187898</v>
       </c>
       <c r="D2" t="n">
-        <v>2798.77040945648</v>
+        <v>2660.67483196331</v>
       </c>
       <c r="E2" t="n">
-        <v>4684.52552315392</v>
+        <v>4582.95522336078</v>
       </c>
       <c r="F2" t="n">
-        <v>5127.5211251291</v>
+        <v>4887.77131409692</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>1163.9444906058</v>
+        <v>1113.21997781544</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3776.53732285243</v>
+        <v>3717.81892233838</v>
       </c>
       <c r="C3" t="n">
-        <v>2949.30488084159</v>
+        <v>2888.33491166795</v>
       </c>
       <c r="D3" t="n">
-        <v>2581.31128582478</v>
+        <v>2583.65772702151</v>
       </c>
       <c r="E3" t="n">
-        <v>4545.23461492725</v>
+        <v>4514.61384099039</v>
       </c>
       <c r="F3" t="n">
-        <v>4845.07581780018</v>
+        <v>4924.06170592526</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1643.53732285243</v>
+        <v>1584.81892233838</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6211.16102030584</v>
+        <v>6161.47264940099</v>
       </c>
       <c r="C4" t="n">
-        <v>5371.99004450855</v>
+        <v>5293.35521821073</v>
       </c>
       <c r="D4" t="n">
-        <v>4884.59903706935</v>
+        <v>4936.3865548937</v>
       </c>
       <c r="E4" t="n">
-        <v>7069.35026906725</v>
+        <v>7016.38975479554</v>
       </c>
       <c r="F4" t="n">
-        <v>7625.0185237563</v>
+        <v>7552.1132546323</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1403.16102030584</v>
+        <v>1353.47264940099</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>6135.92388243585</v>
+        <v>6037.08515295085</v>
       </c>
       <c r="C5" t="n">
-        <v>5155.23880865597</v>
+        <v>5117.32921560734</v>
       </c>
       <c r="D5" t="n">
-        <v>4578.77229457255</v>
+        <v>4767.2272551482</v>
       </c>
       <c r="E5" t="n">
-        <v>7107.969190459</v>
+        <v>6966.44601821026</v>
       </c>
       <c r="F5" t="n">
-        <v>7655.77014199987</v>
+        <v>7347.02947628176</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>175.923882435848</v>
+        <v>77.0851529508463</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6216.97045624443</v>
+        <v>6209.08944333042</v>
       </c>
       <c r="C6" t="n">
-        <v>5079.50213030697</v>
+        <v>5191.59985972104</v>
       </c>
       <c r="D6" t="n">
-        <v>4756.93737874627</v>
+        <v>4750.85483437735</v>
       </c>
       <c r="E6" t="n">
-        <v>7194.53842158798</v>
+        <v>7234.45706328053</v>
       </c>
       <c r="F6" t="n">
-        <v>7542.38201282789</v>
+        <v>7543.62370017589</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>732.97045624443</v>
+        <v>725.089443330416</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6410.53220952663</v>
+        <v>6429.4172110895</v>
       </c>
       <c r="C7" t="n">
-        <v>5268.72502675209</v>
+        <v>5327.54161650525</v>
       </c>
       <c r="D7" t="n">
-        <v>4833.24194239529</v>
+        <v>4810.64524159658</v>
       </c>
       <c r="E7" t="n">
-        <v>7490.84528016277</v>
+        <v>7610.57414403269</v>
       </c>
       <c r="F7" t="n">
-        <v>8017.00636932811</v>
+        <v>8100.23276775528</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>-504.467790473367</v>
+        <v>-485.582788910499</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6338.48851511137</v>
+        <v>6332.99747908413</v>
       </c>
       <c r="C8" t="n">
-        <v>5310.33066835901</v>
+        <v>5249.33345371774</v>
       </c>
       <c r="D8" t="n">
-        <v>4763.56365795274</v>
+        <v>4563.39907470395</v>
       </c>
       <c r="E8" t="n">
-        <v>7444.01880365351</v>
+        <v>7544.76888704792</v>
       </c>
       <c r="F8" t="n">
-        <v>7985.42841320993</v>
+        <v>8243.44864140114</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1172.48851511137</v>
+        <v>1166.99747908413</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6091.2853505539</v>
+        <v>6022.10055349949</v>
       </c>
       <c r="C9" t="n">
-        <v>4887.63603601396</v>
+        <v>4746.71090333025</v>
       </c>
       <c r="D9" t="n">
-        <v>4380.0111099767</v>
+        <v>4345.94517732122</v>
       </c>
       <c r="E9" t="n">
-        <v>7203.50521969906</v>
+        <v>7239.44405430752</v>
       </c>
       <c r="F9" t="n">
-        <v>7835.82660145675</v>
+        <v>7932.32505183863</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>6124</v>
       </c>
       <c r="I9" t="n">
-        <v>-32.714649446104</v>
+        <v>-101.899446500511</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6091.52373879718</v>
+        <v>6086.76989011549</v>
       </c>
       <c r="C10" t="n">
-        <v>4821.46508789222</v>
+        <v>4785.24694945483</v>
       </c>
       <c r="D10" t="n">
-        <v>4413.08691947205</v>
+        <v>4253.29332279719</v>
       </c>
       <c r="E10" t="n">
-        <v>7300.27363629538</v>
+        <v>7310.85040175644</v>
       </c>
       <c r="F10" t="n">
-        <v>7968.72794476768</v>
+        <v>8113.41827269009</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-835.476261202821</v>
+        <v>-840.23010988451</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>5944.16115827304</v>
+        <v>5870.04529434213</v>
       </c>
       <c r="C11" t="n">
-        <v>4751.53795674398</v>
+        <v>4332.646993398</v>
       </c>
       <c r="D11" t="n">
-        <v>3995.97668647259</v>
+        <v>3894.67424064646</v>
       </c>
       <c r="E11" t="n">
-        <v>7187.50090194837</v>
+        <v>7312.97582671173</v>
       </c>
       <c r="F11" t="n">
-        <v>7730.49195316676</v>
+        <v>7871.9628190804</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1398.16115827304</v>
+        <v>1324.04529434213</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7427.07209607813</v>
+        <v>7374.85252060155</v>
       </c>
       <c r="C12" t="n">
-        <v>6129.529311513</v>
+        <v>6079.45454714597</v>
       </c>
       <c r="D12" t="n">
-        <v>5516.32974901539</v>
+        <v>5433.61289240541</v>
       </c>
       <c r="E12" t="n">
-        <v>8792.63922543464</v>
+        <v>8857.1748758665</v>
       </c>
       <c r="F12" t="n">
-        <v>9223.41909925626</v>
+        <v>9402.31527162994</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>1603.07209607813</v>
+        <v>1550.85252060155</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7215.32286992269</v>
+        <v>7193.98816155765</v>
       </c>
       <c r="C13" t="n">
-        <v>5859.95879840116</v>
+        <v>5676.42876771294</v>
       </c>
       <c r="D13" t="n">
-        <v>5226.81464882515</v>
+        <v>5243.70652318942</v>
       </c>
       <c r="E13" t="n">
-        <v>8592.11159632123</v>
+        <v>8493.91194893125</v>
       </c>
       <c r="F13" t="n">
-        <v>9137.979438031</v>
+        <v>9001.69471471992</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>707.322869922687</v>
+        <v>685.988161557653</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4284.36697999869</v>
+        <v>4305.59366425091</v>
       </c>
       <c r="C14" t="n">
-        <v>2806.75382280221</v>
+        <v>2764.63934755399</v>
       </c>
       <c r="D14" t="n">
-        <v>1938.16658978815</v>
+        <v>2116.85846948161</v>
       </c>
       <c r="E14" t="n">
-        <v>5813.5124589957</v>
+        <v>5880.71354372076</v>
       </c>
       <c r="F14" t="n">
-        <v>6512.42783309022</v>
+        <v>6812.1827641527</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>1024.36697999869</v>
+        <v>1045.59366425091</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4079.65371978662</v>
+        <v>4110.32172805814</v>
       </c>
       <c r="C15" t="n">
-        <v>2585.88720764211</v>
+        <v>2560.06582563261</v>
       </c>
       <c r="D15" t="n">
-        <v>2029.74353887492</v>
+        <v>1895.71638747848</v>
       </c>
       <c r="E15" t="n">
-        <v>5489.65684169937</v>
+        <v>5731.65495458793</v>
       </c>
       <c r="F15" t="n">
-        <v>6428.03533025762</v>
+        <v>6399.70562104025</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1028.65371978662</v>
+        <v>1059.32172805814</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6561.59122518749</v>
+        <v>6618.81317046967</v>
       </c>
       <c r="C16" t="n">
-        <v>4921.193336978</v>
+        <v>4829.34857533439</v>
       </c>
       <c r="D16" t="n">
-        <v>4055.61361179215</v>
+        <v>4138.39011920037</v>
       </c>
       <c r="E16" t="n">
-        <v>8169.37879331979</v>
+        <v>8300.76082957592</v>
       </c>
       <c r="F16" t="n">
-        <v>9078.38877030912</v>
+        <v>8918.35335596438</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>610.591225187494</v>
+        <v>667.81317046967</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6525.93886591054</v>
+        <v>6454.19121530306</v>
       </c>
       <c r="C17" t="n">
-        <v>4977.11213110567</v>
+        <v>4555.79579438915</v>
       </c>
       <c r="D17" t="n">
-        <v>4066.34597216053</v>
+        <v>4003.74141361915</v>
       </c>
       <c r="E17" t="n">
-        <v>8196.39797260536</v>
+        <v>8074.49338618143</v>
       </c>
       <c r="F17" t="n">
-        <v>9043.45720742665</v>
+        <v>9036.54397761502</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1242.93886591054</v>
+        <v>1171.19121530306</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6576.02305721427</v>
+        <v>6587.22775535455</v>
       </c>
       <c r="C18" t="n">
-        <v>5055.78101538916</v>
+        <v>4861.31996225747</v>
       </c>
       <c r="D18" t="n">
-        <v>3983.87457319801</v>
+        <v>3954.20955032381</v>
       </c>
       <c r="E18" t="n">
-        <v>8303.61506406464</v>
+        <v>8336.38509507422</v>
       </c>
       <c r="F18" t="n">
-        <v>9072.01100503505</v>
+        <v>9408.96028098804</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1529.02305721427</v>
+        <v>1540.22775535455</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6790.20202208576</v>
+        <v>6816.27644838711</v>
       </c>
       <c r="C19" t="n">
-        <v>5036.24936657896</v>
+        <v>4918.6758839146</v>
       </c>
       <c r="D19" t="n">
-        <v>4199.02403364522</v>
+        <v>4033.28211944504</v>
       </c>
       <c r="E19" t="n">
-        <v>8550.65365504959</v>
+        <v>8846.30837523924</v>
       </c>
       <c r="F19" t="n">
-        <v>9344.72267898266</v>
+        <v>9655.20347617449</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>812.202022085759</v>
+        <v>838.276448387106</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6766.05153864678</v>
+        <v>6739.50528572467</v>
       </c>
       <c r="C20" t="n">
-        <v>4971.01487553219</v>
+        <v>4917.60906145566</v>
       </c>
       <c r="D20" t="n">
-        <v>4025.66989537052</v>
+        <v>3775.8876474966</v>
       </c>
       <c r="E20" t="n">
-        <v>8536.62431611408</v>
+        <v>8721.41519957633</v>
       </c>
       <c r="F20" t="n">
-        <v>9557.77548662887</v>
+        <v>9447.98701851307</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>3393.05153864678</v>
+        <v>3366.50528572467</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6477.40475164916</v>
+        <v>6462.05206872677</v>
       </c>
       <c r="C21" t="n">
-        <v>4727.96651701057</v>
+        <v>4599.57718459861</v>
       </c>
       <c r="D21" t="n">
-        <v>3973.23297070647</v>
+        <v>3541.42527100436</v>
       </c>
       <c r="E21" t="n">
-        <v>8234.15351414433</v>
+        <v>8492.68233177629</v>
       </c>
       <c r="F21" t="n">
-        <v>9046.82160350355</v>
+        <v>9301.83207896321</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>1767.40475164916</v>
+        <v>1752.05206872677</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6512.69785784024</v>
+        <v>6516.79543826608</v>
       </c>
       <c r="C22" t="n">
-        <v>4646.64293285655</v>
+        <v>4665.02969173179</v>
       </c>
       <c r="D22" t="n">
-        <v>3904.60871603784</v>
+        <v>3543.03779444194</v>
       </c>
       <c r="E22" t="n">
-        <v>8373.79366383097</v>
+        <v>8672.59530493086</v>
       </c>
       <c r="F22" t="n">
-        <v>9281.74768955274</v>
+        <v>9592.82848871494</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>1473.69785784024</v>
+        <v>1477.79543826608</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6386.85728552875</v>
+        <v>6363.45229161859</v>
       </c>
       <c r="C23" t="n">
-        <v>4509.06241746111</v>
+        <v>4252.17210606454</v>
       </c>
       <c r="D23" t="n">
-        <v>3605.99206707659</v>
+        <v>3328.18434280992</v>
       </c>
       <c r="E23" t="n">
-        <v>8231.15148694663</v>
+        <v>8543.63678940861</v>
       </c>
       <c r="F23" t="n">
-        <v>9435.38880853863</v>
+        <v>9604.55546804971</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>1029.85728552875</v>
+        <v>1006.45229161859</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7891.97757599688</v>
+        <v>7874.63528182735</v>
       </c>
       <c r="C24" t="n">
-        <v>5864.34919815206</v>
+        <v>5771.18099161359</v>
       </c>
       <c r="D24" t="n">
-        <v>5190.08503768689</v>
+        <v>5110.71445906816</v>
       </c>
       <c r="E24" t="n">
-        <v>9868.16654060749</v>
+        <v>10066.4651831558</v>
       </c>
       <c r="F24" t="n">
-        <v>10554.1758274241</v>
+        <v>11404.915837394</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1398.97757599688</v>
+        <v>1381.63528182735</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7697.71958580138</v>
+        <v>7656.39421481911</v>
       </c>
       <c r="C25" t="n">
-        <v>5921.82798463838</v>
+        <v>5766.3951791198</v>
       </c>
       <c r="D25" t="n">
-        <v>4704.25361625165</v>
+        <v>4692.66934103277</v>
       </c>
       <c r="E25" t="n">
-        <v>9530.09466265753</v>
+        <v>9687.97401017071</v>
       </c>
       <c r="F25" t="n">
-        <v>10653.0446246254</v>
+        <v>10923.7410783091</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>207.719585801379</v>
+        <v>166.394214819108</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4777.40734806405</v>
+        <v>4731.0622668595</v>
       </c>
       <c r="C26" t="n">
-        <v>2493.02631749103</v>
+        <v>2344.99450363247</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.3305213642</v>
+        <v>1328.16196199787</v>
       </c>
       <c r="E26" t="n">
-        <v>6914.92736100082</v>
+        <v>7152.90850235664</v>
       </c>
       <c r="F26" t="n">
-        <v>7945.21155184727</v>
+        <v>8515.36992178307</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1668.40734806405</v>
+        <v>1622.0622668595</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4600.05860014992</v>
+        <v>4586.53164408867</v>
       </c>
       <c r="C27" t="n">
-        <v>2538.7199284028</v>
+        <v>2461.44949266553</v>
       </c>
       <c r="D27" t="n">
-        <v>1333.17781772575</v>
+        <v>1218.46457510788</v>
       </c>
       <c r="E27" t="n">
-        <v>6670.27218254591</v>
+        <v>7020.61149157694</v>
       </c>
       <c r="F27" t="n">
-        <v>8107.59862651553</v>
+        <v>8495.95837429067</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1236.05860014992</v>
+        <v>1222.53164408867</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7001.96841899555</v>
+        <v>7062.59450825192</v>
       </c>
       <c r="C28" t="n">
-        <v>4754.56896898761</v>
+        <v>4849.07828339831</v>
       </c>
       <c r="D28" t="n">
-        <v>3761.32394047361</v>
+        <v>3745.09984519392</v>
       </c>
       <c r="E28" t="n">
-        <v>9265.06873943902</v>
+        <v>9471.96450162124</v>
       </c>
       <c r="F28" t="n">
-        <v>10577.5722763061</v>
+        <v>10595.401787095</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>1981.96841899555</v>
+        <v>2042.59450825192</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>7006.87122994247</v>
+        <v>6893.14699636238</v>
       </c>
       <c r="C29" t="n">
-        <v>4834.27142347792</v>
+        <v>4643.32339196898</v>
       </c>
       <c r="D29" t="n">
-        <v>3616.01926569933</v>
+        <v>3336.32346803229</v>
       </c>
       <c r="E29" t="n">
-        <v>9087.1482031329</v>
+        <v>9365.26631160593</v>
       </c>
       <c r="F29" t="n">
-        <v>10700.5801689987</v>
+        <v>10882.1614403116</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>3169.87122994247</v>
+        <v>3056.14699636238</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7037.22151512713</v>
+        <v>6997.90015757051</v>
       </c>
       <c r="C30" t="n">
-        <v>4777.64664080036</v>
+        <v>4555.31152278671</v>
       </c>
       <c r="D30" t="n">
-        <v>3603.42530758517</v>
+        <v>3406.88391283588</v>
       </c>
       <c r="E30" t="n">
-        <v>9291.62066937803</v>
+        <v>9540.28232382348</v>
       </c>
       <c r="F30" t="n">
-        <v>10533.5066529562</v>
+        <v>10854.3740791937</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>2547.22151512713</v>
+        <v>2507.90015757051</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7218.91045145499</v>
+        <v>7248.85340354656</v>
       </c>
       <c r="C31" t="n">
-        <v>4939.78888992543</v>
+        <v>4717.90720108529</v>
       </c>
       <c r="D31" t="n">
-        <v>3534.94971847717</v>
+        <v>3858.87577617756</v>
       </c>
       <c r="E31" t="n">
-        <v>9367.22643747505</v>
+        <v>9891.12691665424</v>
       </c>
       <c r="F31" t="n">
-        <v>10965.1909554988</v>
+        <v>11468.9543047817</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>1592.91045145499</v>
+        <v>1622.85340354656</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7257.88303003789</v>
+        <v>7146.23454091563</v>
       </c>
       <c r="C32" t="n">
-        <v>4999.55098102209</v>
+        <v>4675.66731266611</v>
       </c>
       <c r="D32" t="n">
-        <v>3891.67953081497</v>
+        <v>3489.76826906066</v>
       </c>
       <c r="E32" t="n">
-        <v>9439.62236275859</v>
+        <v>10021.9683936395</v>
       </c>
       <c r="F32" t="n">
-        <v>10991.6447731318</v>
+        <v>11410.8544928423</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>2590.88303003789</v>
+        <v>2479.23454091563</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6921.12891882346</v>
+        <v>6844.06283809014</v>
       </c>
       <c r="C33" t="n">
-        <v>4661.86811581564</v>
+        <v>4311.24792820111</v>
       </c>
       <c r="D33" t="n">
-        <v>2846.30927559161</v>
+        <v>3169.24392835587</v>
       </c>
       <c r="E33" t="n">
-        <v>9215.67751913657</v>
+        <v>9192.67552294124</v>
       </c>
       <c r="F33" t="n">
-        <v>10259.0295709121</v>
+        <v>10674.0724451553</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>2242.12891882346</v>
+        <v>2165.06283809014</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6907.31649061547</v>
+        <v>6890.88656504705</v>
       </c>
       <c r="C34" t="n">
-        <v>4456.17090449143</v>
+        <v>4453.04648692299</v>
       </c>
       <c r="D34" t="n">
-        <v>3305.52213050162</v>
+        <v>2854.45572154364</v>
       </c>
       <c r="E34" t="n">
-        <v>9085.89677675823</v>
+        <v>9459.15065301494</v>
       </c>
       <c r="F34" t="n">
-        <v>10645.6592145306</v>
+        <v>10861.038401553</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>2518.31649061547</v>
+        <v>2501.88656504705</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6839.22033470798</v>
+        <v>6798.12875993829</v>
       </c>
       <c r="C35" t="n">
-        <v>4455.07229889499</v>
+        <v>4035.45738295957</v>
       </c>
       <c r="D35" t="n">
-        <v>3082.78159043897</v>
+        <v>2910.51804590474</v>
       </c>
       <c r="E35" t="n">
-        <v>9295.55820652393</v>
+        <v>9579.55231657734</v>
       </c>
       <c r="F35" t="n">
-        <v>10929.4035032447</v>
+        <v>11064.487637925</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>2874.22033470798</v>
+        <v>2833.12875993829</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8295.23769130142</v>
+        <v>8326.36335567197</v>
       </c>
       <c r="C36" t="n">
-        <v>5670.1137551235</v>
+        <v>5745.43369247727</v>
       </c>
       <c r="D36" t="n">
-        <v>4705.75821432899</v>
+        <v>4345.50238852338</v>
       </c>
       <c r="E36" t="n">
-        <v>10523.6811711239</v>
+        <v>10926.4054828962</v>
       </c>
       <c r="F36" t="n">
-        <v>12317.546916375</v>
+        <v>12696.4382006465</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>3996.23769130142</v>
+        <v>4027.36335567197</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/AIDS.xlsx
+++ b/outcome/appendix/data/PHSMs/AIDS.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3872.21997781544</v>
+        <v>3878.04431873673</v>
       </c>
       <c r="C2" t="n">
-        <v>3210.61142187898</v>
+        <v>3134.96652009432</v>
       </c>
       <c r="D2" t="n">
-        <v>2660.67483196331</v>
+        <v>2925.96954378502</v>
       </c>
       <c r="E2" t="n">
-        <v>4582.95522336078</v>
+        <v>4607.04742002862</v>
       </c>
       <c r="F2" t="n">
-        <v>4887.77131409692</v>
+        <v>4965.16803761802</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>1113.21997781544</v>
+        <v>1119.04431873673</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3717.81892233838</v>
+        <v>3748.44868407932</v>
       </c>
       <c r="C3" t="n">
-        <v>2888.33491166795</v>
+        <v>2877.66136482905</v>
       </c>
       <c r="D3" t="n">
-        <v>2583.65772702151</v>
+        <v>2503.32348817903</v>
       </c>
       <c r="E3" t="n">
-        <v>4514.61384099039</v>
+        <v>4624.65253392686</v>
       </c>
       <c r="F3" t="n">
-        <v>4924.06170592526</v>
+        <v>5026.48378918101</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1584.81892233838</v>
+        <v>1615.44868407932</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6161.47264940099</v>
+        <v>6190.02738293345</v>
       </c>
       <c r="C4" t="n">
-        <v>5293.35521821073</v>
+        <v>5248.2738739673</v>
       </c>
       <c r="D4" t="n">
-        <v>4936.3865548937</v>
+        <v>4902.79871581896</v>
       </c>
       <c r="E4" t="n">
-        <v>7016.38975479554</v>
+        <v>7098.33563321692</v>
       </c>
       <c r="F4" t="n">
-        <v>7552.1132546323</v>
+        <v>7579.40633717791</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1353.47264940099</v>
+        <v>1382.02738293345</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>6037.08515295085</v>
+        <v>6074.35106273214</v>
       </c>
       <c r="C5" t="n">
-        <v>5117.32921560734</v>
+        <v>5063.13401786158</v>
       </c>
       <c r="D5" t="n">
-        <v>4767.2272551482</v>
+        <v>4495.24657024179</v>
       </c>
       <c r="E5" t="n">
-        <v>6966.44601821026</v>
+        <v>7052.60438278072</v>
       </c>
       <c r="F5" t="n">
-        <v>7347.02947628176</v>
+        <v>7862.26200425458</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>77.0851529508463</v>
+        <v>114.35106273214</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6209.08944333042</v>
+        <v>6186.59152491167</v>
       </c>
       <c r="C6" t="n">
-        <v>5191.59985972104</v>
+        <v>5084.48144198402</v>
       </c>
       <c r="D6" t="n">
-        <v>4750.85483437735</v>
+        <v>4590.15133017307</v>
       </c>
       <c r="E6" t="n">
-        <v>7234.45706328053</v>
+        <v>7266.73299704348</v>
       </c>
       <c r="F6" t="n">
-        <v>7543.62370017589</v>
+        <v>7852.99201164144</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>725.089443330416</v>
+        <v>702.591524911668</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6429.4172110895</v>
+        <v>6394.77959841517</v>
       </c>
       <c r="C7" t="n">
-        <v>5327.54161650525</v>
+        <v>5269.48528891715</v>
       </c>
       <c r="D7" t="n">
-        <v>4810.64524159658</v>
+        <v>4643.33121962485</v>
       </c>
       <c r="E7" t="n">
-        <v>7610.57414403269</v>
+        <v>7581.64269322274</v>
       </c>
       <c r="F7" t="n">
-        <v>8100.23276775528</v>
+        <v>8184.71049307089</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>-485.582788910499</v>
+        <v>-520.220401584834</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6332.99747908413</v>
+        <v>6394.48190233877</v>
       </c>
       <c r="C8" t="n">
-        <v>5249.33345371774</v>
+        <v>5135.06851946436</v>
       </c>
       <c r="D8" t="n">
-        <v>4563.39907470395</v>
+        <v>4620.33216794351</v>
       </c>
       <c r="E8" t="n">
-        <v>7544.76888704792</v>
+        <v>7652.27899785574</v>
       </c>
       <c r="F8" t="n">
-        <v>8243.44864140114</v>
+        <v>8213.40085414275</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1166.99747908413</v>
+        <v>1228.48190233877</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6022.10055349949</v>
+        <v>6056.70007516499</v>
       </c>
       <c r="C9" t="n">
-        <v>4746.71090333025</v>
+        <v>4875.90224832659</v>
       </c>
       <c r="D9" t="n">
-        <v>4345.94517732122</v>
+        <v>4314.68730968791</v>
       </c>
       <c r="E9" t="n">
-        <v>7239.44405430752</v>
+        <v>7228.07339927265</v>
       </c>
       <c r="F9" t="n">
-        <v>7932.32505183863</v>
+        <v>7813.86834603813</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>6124</v>
       </c>
       <c r="I9" t="n">
-        <v>-101.899446500511</v>
+        <v>-67.2999248350116</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6086.76989011549</v>
+        <v>6160.35216527461</v>
       </c>
       <c r="C10" t="n">
-        <v>4785.24694945483</v>
+        <v>4868.78233868245</v>
       </c>
       <c r="D10" t="n">
-        <v>4253.29332279719</v>
+        <v>4212.14486771031</v>
       </c>
       <c r="E10" t="n">
-        <v>7310.85040175644</v>
+        <v>7497.9691454204</v>
       </c>
       <c r="F10" t="n">
-        <v>8113.41827269009</v>
+        <v>8145.27348428447</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-840.23010988451</v>
+        <v>-766.647834725389</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>5870.04529434213</v>
+        <v>6002.40298008838</v>
       </c>
       <c r="C11" t="n">
-        <v>4332.646993398</v>
+        <v>4646.24470462427</v>
       </c>
       <c r="D11" t="n">
-        <v>3894.67424064646</v>
+        <v>3897.29642343452</v>
       </c>
       <c r="E11" t="n">
-        <v>7312.97582671173</v>
+        <v>7418.92850339204</v>
       </c>
       <c r="F11" t="n">
-        <v>7871.9628190804</v>
+        <v>7892.13592026445</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1324.04529434213</v>
+        <v>1456.40298008838</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7374.85252060155</v>
+        <v>7470.19338660742</v>
       </c>
       <c r="C12" t="n">
-        <v>6079.45454714597</v>
+        <v>5969.47530154284</v>
       </c>
       <c r="D12" t="n">
-        <v>5433.61289240541</v>
+        <v>5459.40158274713</v>
       </c>
       <c r="E12" t="n">
-        <v>8857.1748758665</v>
+        <v>8933.19343422401</v>
       </c>
       <c r="F12" t="n">
-        <v>9402.31527162994</v>
+        <v>9529.18753816861</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>1550.85252060155</v>
+        <v>1646.19338660742</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7193.98816155765</v>
+        <v>7292.52570871289</v>
       </c>
       <c r="C13" t="n">
-        <v>5676.42876771294</v>
+        <v>5927.13861786449</v>
       </c>
       <c r="D13" t="n">
-        <v>5243.70652318942</v>
+        <v>4955.8156010446</v>
       </c>
       <c r="E13" t="n">
-        <v>8493.91194893125</v>
+        <v>8661.14037781925</v>
       </c>
       <c r="F13" t="n">
-        <v>9001.69471471992</v>
+        <v>9365.04725417586</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>685.988161557653</v>
+        <v>784.525708712889</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4305.59366425091</v>
+        <v>4381.81418910255</v>
       </c>
       <c r="C14" t="n">
-        <v>2764.63934755399</v>
+        <v>2738.12166724478</v>
       </c>
       <c r="D14" t="n">
-        <v>2116.85846948161</v>
+        <v>1917.63003046536</v>
       </c>
       <c r="E14" t="n">
-        <v>5880.71354372076</v>
+        <v>6012.95969578905</v>
       </c>
       <c r="F14" t="n">
-        <v>6812.1827641527</v>
+        <v>6608.80278156261</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>1045.59366425091</v>
+        <v>1121.81418910255</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4110.32172805814</v>
+        <v>4201.79786473784</v>
       </c>
       <c r="C15" t="n">
-        <v>2560.06582563261</v>
+        <v>2522.20516267659</v>
       </c>
       <c r="D15" t="n">
-        <v>1895.71638747848</v>
+        <v>1647.17021243834</v>
       </c>
       <c r="E15" t="n">
-        <v>5731.65495458793</v>
+        <v>5893.97291447283</v>
       </c>
       <c r="F15" t="n">
-        <v>6399.70562104025</v>
+        <v>6864.49594982249</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1059.32172805814</v>
+        <v>1150.79786473784</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6618.81317046967</v>
+        <v>6676.44545975925</v>
       </c>
       <c r="C16" t="n">
-        <v>4829.34857533439</v>
+        <v>4866.77018263881</v>
       </c>
       <c r="D16" t="n">
-        <v>4138.39011920037</v>
+        <v>4076.62604951903</v>
       </c>
       <c r="E16" t="n">
-        <v>8300.76082957592</v>
+        <v>8483.9251205217</v>
       </c>
       <c r="F16" t="n">
-        <v>8918.35335596438</v>
+        <v>9261.65057677298</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>667.81317046967</v>
+        <v>725.445459759253</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6454.19121530306</v>
+        <v>6534.59977236842</v>
       </c>
       <c r="C17" t="n">
-        <v>4555.79579438915</v>
+        <v>4649.3139233348</v>
       </c>
       <c r="D17" t="n">
-        <v>4003.74141361915</v>
+        <v>3562.40208875403</v>
       </c>
       <c r="E17" t="n">
-        <v>8074.49338618143</v>
+        <v>8371.29545507306</v>
       </c>
       <c r="F17" t="n">
-        <v>9036.54397761502</v>
+        <v>9594.67309322785</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1171.19121530306</v>
+        <v>1251.59977236842</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6587.22775535455</v>
+        <v>6637.83220471097</v>
       </c>
       <c r="C18" t="n">
-        <v>4861.31996225747</v>
+        <v>4791.38226724724</v>
       </c>
       <c r="D18" t="n">
-        <v>3954.20955032381</v>
+        <v>3906.88916159216</v>
       </c>
       <c r="E18" t="n">
-        <v>8336.38509507422</v>
+        <v>8430.19419156328</v>
       </c>
       <c r="F18" t="n">
-        <v>9408.96028098804</v>
+        <v>9275.65470954912</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1540.22775535455</v>
+        <v>1590.83220471097</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6816.27644838711</v>
+        <v>6852.5739100628</v>
       </c>
       <c r="C19" t="n">
-        <v>4918.6758839146</v>
+        <v>4828.60336766004</v>
       </c>
       <c r="D19" t="n">
-        <v>4033.28211944504</v>
+        <v>3415.218657048</v>
       </c>
       <c r="E19" t="n">
-        <v>8846.30837523924</v>
+        <v>8781.86962249622</v>
       </c>
       <c r="F19" t="n">
-        <v>9655.20347617449</v>
+        <v>9320.92629388001</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>838.276448387106</v>
+        <v>874.573910062795</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6739.50528572467</v>
+        <v>6751.1066935556</v>
       </c>
       <c r="C20" t="n">
-        <v>4917.60906145566</v>
+        <v>4676.24043311824</v>
       </c>
       <c r="D20" t="n">
-        <v>3775.8876474966</v>
+        <v>3738.20342088089</v>
       </c>
       <c r="E20" t="n">
-        <v>8721.41519957633</v>
+        <v>8685.72344534452</v>
       </c>
       <c r="F20" t="n">
-        <v>9447.98701851307</v>
+        <v>9494.04005428302</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>3366.50528572467</v>
+        <v>3378.1066935556</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6462.05206872677</v>
+        <v>6383.4980644453</v>
       </c>
       <c r="C21" t="n">
-        <v>4599.57718459861</v>
+        <v>4460.1583234335</v>
       </c>
       <c r="D21" t="n">
-        <v>3541.42527100436</v>
+        <v>2879.54532054069</v>
       </c>
       <c r="E21" t="n">
-        <v>8492.68233177629</v>
+        <v>8333.84595920564</v>
       </c>
       <c r="F21" t="n">
-        <v>9301.83207896321</v>
+        <v>9270.21377849824</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>1752.05206872677</v>
+        <v>1673.4980644453</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6516.79543826608</v>
+        <v>6459.75265504049</v>
       </c>
       <c r="C22" t="n">
-        <v>4665.02969173179</v>
+        <v>4264.99399941155</v>
       </c>
       <c r="D22" t="n">
-        <v>3543.03779444194</v>
+        <v>3263.86059409139</v>
       </c>
       <c r="E22" t="n">
-        <v>8672.59530493086</v>
+        <v>8421.57490079915</v>
       </c>
       <c r="F22" t="n">
-        <v>9592.82848871494</v>
+        <v>9418.40230042648</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>1477.79543826608</v>
+        <v>1420.75265504049</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6363.45229161859</v>
+        <v>6286.96581618228</v>
       </c>
       <c r="C23" t="n">
-        <v>4252.17210606454</v>
+        <v>4219.14945408537</v>
       </c>
       <c r="D23" t="n">
-        <v>3328.18434280992</v>
+        <v>3092.17699840519</v>
       </c>
       <c r="E23" t="n">
-        <v>8543.63678940861</v>
+        <v>8291.18220942948</v>
       </c>
       <c r="F23" t="n">
-        <v>9604.55546804971</v>
+        <v>9132.74167037577</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>1006.45229161859</v>
+        <v>929.965816182282</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7874.63528182735</v>
+        <v>7761.32749544834</v>
       </c>
       <c r="C24" t="n">
-        <v>5771.18099161359</v>
+        <v>5636.55857815857</v>
       </c>
       <c r="D24" t="n">
-        <v>5110.71445906816</v>
+        <v>4523.88608895826</v>
       </c>
       <c r="E24" t="n">
-        <v>10066.4651831558</v>
+        <v>9767.031166365</v>
       </c>
       <c r="F24" t="n">
-        <v>11404.915837394</v>
+        <v>10735.5757626337</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1381.63528182735</v>
+        <v>1268.32749544834</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7656.39421481911</v>
+        <v>7641.90516523913</v>
       </c>
       <c r="C25" t="n">
-        <v>5766.3951791198</v>
+        <v>5759.19175976141</v>
       </c>
       <c r="D25" t="n">
-        <v>4692.66934103277</v>
+        <v>4487.54407493453</v>
       </c>
       <c r="E25" t="n">
-        <v>9687.97401017071</v>
+        <v>9707.25874616854</v>
       </c>
       <c r="F25" t="n">
-        <v>10923.7410783091</v>
+        <v>10435.4520101428</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>166.394214819108</v>
+        <v>151.905165239131</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4731.0622668595</v>
+        <v>4708.42800876746</v>
       </c>
       <c r="C26" t="n">
-        <v>2344.99450363247</v>
+        <v>2444.07793067882</v>
       </c>
       <c r="D26" t="n">
-        <v>1328.16196199787</v>
+        <v>1400.24391746122</v>
       </c>
       <c r="E26" t="n">
-        <v>7152.90850235664</v>
+        <v>6878.38786649949</v>
       </c>
       <c r="F26" t="n">
-        <v>8515.36992178307</v>
+        <v>7838.02805033774</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1622.0622668595</v>
+        <v>1599.42800876746</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4586.53164408867</v>
+        <v>4536.45627332343</v>
       </c>
       <c r="C27" t="n">
-        <v>2461.44949266553</v>
+        <v>2286.00001172957</v>
       </c>
       <c r="D27" t="n">
-        <v>1218.46457510788</v>
+        <v>1274.12306532806</v>
       </c>
       <c r="E27" t="n">
-        <v>7020.61149157694</v>
+        <v>6901.46151734635</v>
       </c>
       <c r="F27" t="n">
-        <v>8495.95837429067</v>
+        <v>7978.78488045118</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1222.53164408867</v>
+        <v>1172.45627332343</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7062.59450825192</v>
+        <v>6978.04913839912</v>
       </c>
       <c r="C28" t="n">
-        <v>4849.07828339831</v>
+        <v>4571.2672197921</v>
       </c>
       <c r="D28" t="n">
-        <v>3745.09984519392</v>
+        <v>3442.67838072009</v>
       </c>
       <c r="E28" t="n">
-        <v>9471.96450162124</v>
+        <v>9037.81375104302</v>
       </c>
       <c r="F28" t="n">
-        <v>10595.401787095</v>
+        <v>10113.1297188723</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>2042.59450825192</v>
+        <v>1958.04913839912</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6893.14699636238</v>
+        <v>6872.21304316959</v>
       </c>
       <c r="C29" t="n">
-        <v>4643.32339196898</v>
+        <v>4303.9829013259</v>
       </c>
       <c r="D29" t="n">
-        <v>3336.32346803229</v>
+        <v>3111.40426844727</v>
       </c>
       <c r="E29" t="n">
-        <v>9365.26631160593</v>
+        <v>9181.21507921368</v>
       </c>
       <c r="F29" t="n">
-        <v>10882.1614403116</v>
+        <v>10442.5051482036</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>3056.14699636238</v>
+        <v>3035.21304316959</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6997.90015757051</v>
+        <v>6938.61396864107</v>
       </c>
       <c r="C30" t="n">
-        <v>4555.31152278671</v>
+        <v>4685.29793878865</v>
       </c>
       <c r="D30" t="n">
-        <v>3406.88391283588</v>
+        <v>3484.22820965949</v>
       </c>
       <c r="E30" t="n">
-        <v>9540.28232382348</v>
+        <v>9275.42158768232</v>
       </c>
       <c r="F30" t="n">
-        <v>10854.3740791937</v>
+        <v>10425.4797135162</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>2507.90015757051</v>
+        <v>2448.61396864107</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7248.85340354656</v>
+        <v>7130.02731803151</v>
       </c>
       <c r="C31" t="n">
-        <v>4717.90720108529</v>
+        <v>4620.8284126449</v>
       </c>
       <c r="D31" t="n">
-        <v>3858.87577617756</v>
+        <v>3490.88322834699</v>
       </c>
       <c r="E31" t="n">
-        <v>9891.12691665424</v>
+        <v>9512.89738924542</v>
       </c>
       <c r="F31" t="n">
-        <v>11468.9543047817</v>
+        <v>10718.7991382295</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>1622.85340354656</v>
+        <v>1504.02731803151</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7146.23454091563</v>
+        <v>7054.35253682408</v>
       </c>
       <c r="C32" t="n">
-        <v>4675.66731266611</v>
+        <v>4515.45963849065</v>
       </c>
       <c r="D32" t="n">
-        <v>3489.76826906066</v>
+        <v>3186.59673445365</v>
       </c>
       <c r="E32" t="n">
-        <v>10021.9683936395</v>
+        <v>9595.61513970529</v>
       </c>
       <c r="F32" t="n">
-        <v>11410.8544928423</v>
+        <v>10683.2650139651</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>2479.23454091563</v>
+        <v>2387.35253682408</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6844.06283809014</v>
+        <v>6804.69659807575</v>
       </c>
       <c r="C33" t="n">
-        <v>4311.24792820111</v>
+        <v>4288.15152670233</v>
       </c>
       <c r="D33" t="n">
-        <v>3169.24392835587</v>
+        <v>3012.22942054715</v>
       </c>
       <c r="E33" t="n">
-        <v>9192.67552294124</v>
+        <v>9314.98604146551</v>
       </c>
       <c r="F33" t="n">
-        <v>10674.0724451553</v>
+        <v>10535.882440845</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>2165.06283809014</v>
+        <v>2125.69659807575</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6890.88656504705</v>
+        <v>6843.03435147874</v>
       </c>
       <c r="C34" t="n">
-        <v>4453.04648692299</v>
+        <v>4516.96051880882</v>
       </c>
       <c r="D34" t="n">
-        <v>2854.45572154364</v>
+        <v>2794.23233864347</v>
       </c>
       <c r="E34" t="n">
-        <v>9459.15065301494</v>
+        <v>9313.2852206806</v>
       </c>
       <c r="F34" t="n">
-        <v>10861.038401553</v>
+        <v>10626.4242364602</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>2501.88656504705</v>
+        <v>2454.03435147874</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6798.12875993829</v>
+        <v>6682.11881416765</v>
       </c>
       <c r="C35" t="n">
-        <v>4035.45738295957</v>
+        <v>4149.09948814834</v>
       </c>
       <c r="D35" t="n">
-        <v>2910.51804590474</v>
+        <v>2456.3045813944</v>
       </c>
       <c r="E35" t="n">
-        <v>9579.55231657734</v>
+        <v>9325.72603022037</v>
       </c>
       <c r="F35" t="n">
-        <v>11064.487637925</v>
+        <v>10438.6300113771</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>2833.12875993829</v>
+        <v>2717.11881416765</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8326.36335567197</v>
+        <v>8156.46158895913</v>
       </c>
       <c r="C36" t="n">
-        <v>5745.43369247727</v>
+        <v>5561.8079025807</v>
       </c>
       <c r="D36" t="n">
-        <v>4345.50238852338</v>
+        <v>4178.75747702978</v>
       </c>
       <c r="E36" t="n">
-        <v>10926.4054828962</v>
+        <v>10932.6040881789</v>
       </c>
       <c r="F36" t="n">
-        <v>12696.4382006465</v>
+        <v>11897.1558285225</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>4027.36335567197</v>
+        <v>3857.46158895913</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/AIDS.xlsx
+++ b/outcome/appendix/data/PHSMs/AIDS.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3878.04431873673</v>
+        <v>3498.74675833293</v>
       </c>
       <c r="C2" t="n">
-        <v>3134.96652009432</v>
+        <v>2873.09001755036</v>
       </c>
       <c r="D2" t="n">
-        <v>2925.96954378502</v>
+        <v>2541.88734542476</v>
       </c>
       <c r="E2" t="n">
-        <v>4607.04742002862</v>
+        <v>4124.4034991155</v>
       </c>
       <c r="F2" t="n">
-        <v>4965.16803761802</v>
+        <v>4455.60617124109</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>1119.04431873673</v>
+        <v>739.746758332928</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3748.44868407932</v>
+        <v>3533.93558964181</v>
       </c>
       <c r="C3" t="n">
-        <v>2877.66136482905</v>
+        <v>2788.36949852261</v>
       </c>
       <c r="D3" t="n">
-        <v>2503.32348817903</v>
+        <v>2393.69065063543</v>
       </c>
       <c r="E3" t="n">
-        <v>4624.65253392686</v>
+        <v>4279.50168076101</v>
       </c>
       <c r="F3" t="n">
-        <v>5026.48378918101</v>
+        <v>4674.18052864819</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1615.44868407932</v>
+        <v>1400.93558964181</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6190.02738293345</v>
+        <v>5947.70578519683</v>
       </c>
       <c r="C4" t="n">
-        <v>5248.2738739673</v>
+        <v>5188.88723370771</v>
       </c>
       <c r="D4" t="n">
-        <v>4902.79871581896</v>
+        <v>4787.19295707079</v>
       </c>
       <c r="E4" t="n">
-        <v>7098.33563321692</v>
+        <v>6706.52433668594</v>
       </c>
       <c r="F4" t="n">
-        <v>7579.40633717791</v>
+        <v>7108.21861332286</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1382.02738293345</v>
+        <v>1139.70578519683</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>6074.35106273214</v>
+        <v>5768.78144496191</v>
       </c>
       <c r="C5" t="n">
-        <v>5063.13401786158</v>
+        <v>4979.14143388525</v>
       </c>
       <c r="D5" t="n">
-        <v>4495.24657024179</v>
+        <v>4561.13126211159</v>
       </c>
       <c r="E5" t="n">
-        <v>7052.60438278072</v>
+        <v>6558.42145603857</v>
       </c>
       <c r="F5" t="n">
-        <v>7862.26200425458</v>
+        <v>6976.43162781223</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>114.35106273214</v>
+        <v>-191.21855503809</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6186.59152491167</v>
+        <v>6334.3621070258</v>
       </c>
       <c r="C6" t="n">
-        <v>5084.48144198402</v>
+        <v>5506.84366556563</v>
       </c>
       <c r="D6" t="n">
-        <v>4590.15133017307</v>
+        <v>5068.78186397455</v>
       </c>
       <c r="E6" t="n">
-        <v>7266.73299704348</v>
+        <v>7161.88054848597</v>
       </c>
       <c r="F6" t="n">
-        <v>7852.99201164144</v>
+        <v>7599.94235007706</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>702.591524911668</v>
+        <v>850.362107025801</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6394.77959841517</v>
+        <v>6673.91435976775</v>
       </c>
       <c r="C7" t="n">
-        <v>5269.48528891715</v>
+        <v>5830.22734128792</v>
       </c>
       <c r="D7" t="n">
-        <v>4643.33121962485</v>
+        <v>5383.60641204054</v>
       </c>
       <c r="E7" t="n">
-        <v>7581.64269322274</v>
+        <v>7517.60137824758</v>
       </c>
       <c r="F7" t="n">
-        <v>8184.71049307089</v>
+        <v>7964.22230749496</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>-520.220401584834</v>
+        <v>-241.085640232251</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6394.48190233877</v>
+        <v>6612.57675288695</v>
       </c>
       <c r="C8" t="n">
-        <v>5135.06851946436</v>
+        <v>5758.89043338418</v>
       </c>
       <c r="D8" t="n">
-        <v>4620.33216794351</v>
+        <v>5306.97619392002</v>
       </c>
       <c r="E8" t="n">
-        <v>7652.27899785574</v>
+        <v>7466.26307238972</v>
       </c>
       <c r="F8" t="n">
-        <v>8213.40085414275</v>
+        <v>7918.17731185389</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1228.48190233877</v>
+        <v>1446.57675288695</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6056.70007516499</v>
+        <v>6545.31937493872</v>
       </c>
       <c r="C9" t="n">
-        <v>4875.90224832659</v>
+        <v>5681.19875132534</v>
       </c>
       <c r="D9" t="n">
-        <v>4314.68730968791</v>
+        <v>5223.76092491974</v>
       </c>
       <c r="E9" t="n">
-        <v>7228.07339927265</v>
+        <v>7409.43999855211</v>
       </c>
       <c r="F9" t="n">
-        <v>7813.86834603813</v>
+        <v>7866.87782495771</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>6124</v>
       </c>
       <c r="I9" t="n">
-        <v>-67.2999248350116</v>
+        <v>421.319374938723</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6160.35216527461</v>
+        <v>6773.15117609828</v>
       </c>
       <c r="C10" t="n">
-        <v>4868.78233868245</v>
+        <v>5901.3446319459</v>
       </c>
       <c r="D10" t="n">
-        <v>4212.14486771031</v>
+        <v>5439.83812497742</v>
       </c>
       <c r="E10" t="n">
-        <v>7497.9691454204</v>
+        <v>7644.95772025066</v>
       </c>
       <c r="F10" t="n">
-        <v>8145.27348428447</v>
+        <v>8106.46422721914</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-766.647834725389</v>
+        <v>-153.848823901721</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6002.40298008838</v>
+        <v>6519.96211347315</v>
       </c>
       <c r="C11" t="n">
-        <v>4646.24470462427</v>
+        <v>5643.34764655362</v>
       </c>
       <c r="D11" t="n">
-        <v>3897.29642343452</v>
+        <v>5179.29597901376</v>
       </c>
       <c r="E11" t="n">
-        <v>7418.92850339204</v>
+        <v>7396.57658039267</v>
       </c>
       <c r="F11" t="n">
-        <v>7892.13592026445</v>
+        <v>7860.62824793253</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1456.40298008838</v>
+        <v>1973.96211347315</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7470.19338660742</v>
+        <v>7959.21326768109</v>
       </c>
       <c r="C12" t="n">
-        <v>5969.47530154284</v>
+        <v>7078.86435877881</v>
       </c>
       <c r="D12" t="n">
-        <v>5459.40158274713</v>
+        <v>6612.83579706845</v>
       </c>
       <c r="E12" t="n">
-        <v>8933.19343422401</v>
+        <v>8839.56217658337</v>
       </c>
       <c r="F12" t="n">
-        <v>9529.18753816861</v>
+        <v>9305.59073829373</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>1646.19338660742</v>
+        <v>2135.21326768109</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7292.52570871289</v>
+        <v>7722.68499381226</v>
       </c>
       <c r="C13" t="n">
-        <v>5927.13861786449</v>
+        <v>6839.34222768171</v>
       </c>
       <c r="D13" t="n">
-        <v>4955.8156010446</v>
+        <v>6371.72881368842</v>
       </c>
       <c r="E13" t="n">
-        <v>8661.14037781925</v>
+        <v>8606.02775994281</v>
       </c>
       <c r="F13" t="n">
-        <v>9365.04725417586</v>
+        <v>9073.6411739361</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>784.525708712889</v>
+        <v>1214.68499381226</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4381.81418910255</v>
+        <v>4102.65193634981</v>
       </c>
       <c r="C14" t="n">
-        <v>2738.12166724478</v>
+        <v>3120.34556996977</v>
       </c>
       <c r="D14" t="n">
-        <v>1917.63003046536</v>
+        <v>2600.34399053483</v>
       </c>
       <c r="E14" t="n">
-        <v>6012.95969578905</v>
+        <v>5084.95830272985</v>
       </c>
       <c r="F14" t="n">
-        <v>6608.80278156261</v>
+        <v>5604.95988216479</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>1121.81418910255</v>
+        <v>842.65193634981</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4201.79786473784</v>
+        <v>4093.85454634278</v>
       </c>
       <c r="C15" t="n">
-        <v>2522.20516267659</v>
+        <v>3069.3518584519</v>
       </c>
       <c r="D15" t="n">
-        <v>1647.17021243834</v>
+        <v>2527.0128957087</v>
       </c>
       <c r="E15" t="n">
-        <v>5893.97291447283</v>
+        <v>5118.35723423365</v>
       </c>
       <c r="F15" t="n">
-        <v>6864.49594982249</v>
+        <v>5660.69619697685</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1150.79786473784</v>
+        <v>1042.85454634278</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6676.44545975925</v>
+        <v>6554.41515114469</v>
       </c>
       <c r="C16" t="n">
-        <v>4866.77018263881</v>
+        <v>5521.82526671066</v>
       </c>
       <c r="D16" t="n">
-        <v>4076.62604951903</v>
+        <v>4975.20520071945</v>
       </c>
       <c r="E16" t="n">
-        <v>8483.9251205217</v>
+        <v>7587.00503557872</v>
       </c>
       <c r="F16" t="n">
-        <v>9261.65057677298</v>
+        <v>8133.62510156993</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>725.445459759253</v>
+        <v>603.415151144692</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6534.59977236842</v>
+        <v>6538.40980377482</v>
       </c>
       <c r="C17" t="n">
-        <v>4649.3139233348</v>
+        <v>5492.186637848</v>
       </c>
       <c r="D17" t="n">
-        <v>3562.40208875403</v>
+        <v>4938.34954858201</v>
       </c>
       <c r="E17" t="n">
-        <v>8371.29545507306</v>
+        <v>7584.63296970164</v>
       </c>
       <c r="F17" t="n">
-        <v>9594.67309322785</v>
+        <v>8138.47005896762</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1251.59977236842</v>
+        <v>1255.40980377482</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6637.83220471097</v>
+        <v>6885.61537999706</v>
       </c>
       <c r="C18" t="n">
-        <v>4791.38226724724</v>
+        <v>5824.06491405562</v>
       </c>
       <c r="D18" t="n">
-        <v>3906.88916159216</v>
+        <v>5262.11404227854</v>
       </c>
       <c r="E18" t="n">
-        <v>8430.19419156328</v>
+        <v>7947.1658459385</v>
       </c>
       <c r="F18" t="n">
-        <v>9275.65470954912</v>
+        <v>8509.11671771559</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1590.83220471097</v>
+        <v>1838.61537999706</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6852.5739100628</v>
+        <v>7237.23784995371</v>
       </c>
       <c r="C19" t="n">
-        <v>4828.60336766004</v>
+        <v>6168.21353600821</v>
       </c>
       <c r="D19" t="n">
-        <v>3415.218657048</v>
+        <v>5602.30624808684</v>
       </c>
       <c r="E19" t="n">
-        <v>8781.86962249622</v>
+        <v>8306.26216389921</v>
       </c>
       <c r="F19" t="n">
-        <v>9320.92629388001</v>
+        <v>8872.16945182057</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>874.573910062795</v>
+        <v>1259.23784995371</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6751.1066935556</v>
+        <v>7318.86354936415</v>
       </c>
       <c r="C20" t="n">
-        <v>4676.24043311824</v>
+        <v>6244.96374323298</v>
       </c>
       <c r="D20" t="n">
-        <v>3738.20342088089</v>
+        <v>5676.47552565073</v>
       </c>
       <c r="E20" t="n">
-        <v>8685.72344534452</v>
+        <v>8392.76335549532</v>
       </c>
       <c r="F20" t="n">
-        <v>9494.04005428302</v>
+        <v>8961.25157307758</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>3378.1066935556</v>
+        <v>3945.86354936415</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6383.4980644453</v>
+        <v>7075.9158398568</v>
       </c>
       <c r="C21" t="n">
-        <v>4460.1583234335</v>
+        <v>5997.29274298758</v>
       </c>
       <c r="D21" t="n">
-        <v>2879.54532054069</v>
+        <v>5426.3041663239</v>
       </c>
       <c r="E21" t="n">
-        <v>8333.84595920564</v>
+        <v>8154.53893672603</v>
       </c>
       <c r="F21" t="n">
-        <v>9270.21377849824</v>
+        <v>8725.5275133897</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>1673.4980644453</v>
+        <v>2365.9158398568</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6459.75265504049</v>
+        <v>7227.5673614996</v>
       </c>
       <c r="C22" t="n">
-        <v>4264.99399941155</v>
+        <v>6145.44266968633</v>
       </c>
       <c r="D22" t="n">
-        <v>3263.86059409139</v>
+        <v>5572.60046062876</v>
       </c>
       <c r="E22" t="n">
-        <v>8421.57490079915</v>
+        <v>8309.69205331287</v>
       </c>
       <c r="F22" t="n">
-        <v>9418.40230042648</v>
+        <v>8882.53426237044</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>1420.75265504049</v>
+        <v>2188.5673614996</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6286.96581618228</v>
+        <v>6988.93722721613</v>
       </c>
       <c r="C23" t="n">
-        <v>4219.14945408537</v>
+        <v>5904.52544268548</v>
       </c>
       <c r="D23" t="n">
-        <v>3092.17699840519</v>
+        <v>5330.47251987704</v>
       </c>
       <c r="E23" t="n">
-        <v>8291.18220942948</v>
+        <v>8073.34901174678</v>
       </c>
       <c r="F23" t="n">
-        <v>9132.74167037577</v>
+        <v>8647.40193455522</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>929.965816182282</v>
+        <v>1631.93722721613</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7761.32749544834</v>
+        <v>8316.5085711809</v>
       </c>
       <c r="C24" t="n">
-        <v>5636.55857815857</v>
+        <v>7230.33289296359</v>
       </c>
       <c r="D24" t="n">
-        <v>4523.88608895826</v>
+        <v>6655.34622124094</v>
       </c>
       <c r="E24" t="n">
-        <v>9767.031166365</v>
+        <v>9402.68424939822</v>
       </c>
       <c r="F24" t="n">
-        <v>10735.5757626337</v>
+        <v>9977.67092112087</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1268.32749544834</v>
+        <v>1823.5085711809</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7641.90516523913</v>
+        <v>7920.78176032884</v>
       </c>
       <c r="C25" t="n">
-        <v>5759.19175976141</v>
+        <v>6833.21308664569</v>
       </c>
       <c r="D25" t="n">
-        <v>4487.54407493453</v>
+        <v>6257.48900766684</v>
       </c>
       <c r="E25" t="n">
-        <v>9707.25874616854</v>
+        <v>9008.350434012</v>
       </c>
       <c r="F25" t="n">
-        <v>10435.4520101428</v>
+        <v>9584.07451299084</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>151.905165239131</v>
+        <v>430.781760328841</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4708.42800876746</v>
+        <v>4461.38596999111</v>
       </c>
       <c r="C26" t="n">
-        <v>2444.07793067882</v>
+        <v>3255.49581724776</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.24391746122</v>
+        <v>2617.13613078617</v>
       </c>
       <c r="E26" t="n">
-        <v>6878.38786649949</v>
+        <v>5667.27612273447</v>
       </c>
       <c r="F26" t="n">
-        <v>7838.02805033774</v>
+        <v>6305.63580919606</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1599.42800876746</v>
+        <v>1352.38596999111</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4536.45627332343</v>
+        <v>4473.0323109896</v>
       </c>
       <c r="C27" t="n">
-        <v>2286.00001172957</v>
+        <v>3218.135061431</v>
       </c>
       <c r="D27" t="n">
-        <v>1274.12306532806</v>
+        <v>2553.83258500118</v>
       </c>
       <c r="E27" t="n">
-        <v>6901.46151734635</v>
+        <v>5727.92956054819</v>
       </c>
       <c r="F27" t="n">
-        <v>7978.78488045118</v>
+        <v>6392.23203697801</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1172.45627332343</v>
+        <v>1109.0323109896</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>6978.04913839912</v>
+        <v>6916.36184756171</v>
       </c>
       <c r="C28" t="n">
-        <v>4571.2672197921</v>
+        <v>5653.46539494127</v>
       </c>
       <c r="D28" t="n">
-        <v>3442.67838072009</v>
+        <v>4984.92839619872</v>
       </c>
       <c r="E28" t="n">
-        <v>9037.81375104302</v>
+        <v>8179.25830018215</v>
       </c>
       <c r="F28" t="n">
-        <v>10113.1297188723</v>
+        <v>8847.79529892471</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>1958.04913839912</v>
+        <v>1896.36184756171</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6872.21304316959</v>
+        <v>6835.05667645603</v>
       </c>
       <c r="C29" t="n">
-        <v>4303.9829013259</v>
+        <v>5557.07170919862</v>
       </c>
       <c r="D29" t="n">
-        <v>3111.40426844727</v>
+        <v>4880.54733328833</v>
       </c>
       <c r="E29" t="n">
-        <v>9181.21507921368</v>
+        <v>8113.04164371344</v>
       </c>
       <c r="F29" t="n">
-        <v>10442.5051482036</v>
+        <v>8789.56601962373</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>3035.21304316959</v>
+        <v>2998.05667645603</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6938.61396864107</v>
+        <v>7273.63718587183</v>
       </c>
       <c r="C30" t="n">
-        <v>4685.29793878865</v>
+        <v>5977.93725306465</v>
       </c>
       <c r="D30" t="n">
-        <v>3484.22820965949</v>
+        <v>5292.03514085864</v>
       </c>
       <c r="E30" t="n">
-        <v>9275.42158768232</v>
+        <v>8569.33711867902</v>
       </c>
       <c r="F30" t="n">
-        <v>10425.4797135162</v>
+        <v>9255.23923088503</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>2448.61396864107</v>
+        <v>2783.63718587183</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7130.02731803151</v>
+        <v>7621.59637591818</v>
       </c>
       <c r="C31" t="n">
-        <v>4620.8284126449</v>
+        <v>6317.58403088019</v>
       </c>
       <c r="D31" t="n">
-        <v>3490.88322834699</v>
+        <v>5627.28159344279</v>
       </c>
       <c r="E31" t="n">
-        <v>9512.89738924542</v>
+        <v>8925.60872095616</v>
       </c>
       <c r="F31" t="n">
-        <v>10718.7991382295</v>
+        <v>9615.91115839356</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>1504.02731803151</v>
+        <v>1995.59637591818</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7054.35253682408</v>
+        <v>7645.51507103714</v>
       </c>
       <c r="C32" t="n">
-        <v>4515.45963849065</v>
+        <v>6336.1596732497</v>
       </c>
       <c r="D32" t="n">
-        <v>3186.59673445365</v>
+        <v>5643.02879453999</v>
       </c>
       <c r="E32" t="n">
-        <v>9595.61513970529</v>
+        <v>8954.87046882458</v>
       </c>
       <c r="F32" t="n">
-        <v>10683.2650139651</v>
+        <v>9648.00134753429</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>2387.35253682408</v>
+        <v>2978.51507103714</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6804.69659807575</v>
+        <v>7475.84065594796</v>
       </c>
       <c r="C33" t="n">
-        <v>4288.15152670233</v>
+        <v>6161.15772723823</v>
       </c>
       <c r="D33" t="n">
-        <v>3012.22942054715</v>
+        <v>5465.20662401518</v>
       </c>
       <c r="E33" t="n">
-        <v>9314.98604146551</v>
+        <v>8790.5235846577</v>
       </c>
       <c r="F33" t="n">
-        <v>10535.882440845</v>
+        <v>9486.47468788075</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>2125.69659807575</v>
+        <v>2796.84065594796</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6843.03435147874</v>
+        <v>7659.68241027529</v>
       </c>
       <c r="C34" t="n">
-        <v>4516.96051880882</v>
+        <v>6341.04798426693</v>
       </c>
       <c r="D34" t="n">
-        <v>2794.23233864347</v>
+        <v>5643.00508472987</v>
       </c>
       <c r="E34" t="n">
-        <v>9313.2852206806</v>
+        <v>8978.31683628365</v>
       </c>
       <c r="F34" t="n">
-        <v>10626.4242364602</v>
+        <v>9676.35973582071</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>2454.03435147874</v>
+        <v>3270.68241027529</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6682.11881416765</v>
+        <v>7415.78673650415</v>
       </c>
       <c r="C35" t="n">
-        <v>4149.09948814834</v>
+        <v>6094.60558088017</v>
       </c>
       <c r="D35" t="n">
-        <v>2456.3045813944</v>
+        <v>5395.21452412064</v>
       </c>
       <c r="E35" t="n">
-        <v>9325.72603022037</v>
+        <v>8736.96789212812</v>
       </c>
       <c r="F35" t="n">
-        <v>10438.6300113771</v>
+        <v>9436.35894888766</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>2717.11881416765</v>
+        <v>3450.78673650415</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8156.46158895913</v>
+        <v>8789.94402004332</v>
       </c>
       <c r="C36" t="n">
-        <v>5561.8079025807</v>
+        <v>7466.79161447049</v>
       </c>
       <c r="D36" t="n">
-        <v>4178.75747702978</v>
+        <v>6766.35704102212</v>
       </c>
       <c r="E36" t="n">
-        <v>10932.6040881789</v>
+        <v>10113.0964256162</v>
       </c>
       <c r="F36" t="n">
-        <v>11897.1558285225</v>
+        <v>10813.5309990645</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>3857.46158895913</v>
+        <v>4490.94402004332</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
